--- a/Retailers Ledger/USRI.xlsx
+++ b/Retailers Ledger/USRI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="5" activeTab="6"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="MEDIA MOBILE GALL-(660315675)" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,16 @@
     <sheet name="PATEL TELECOM-(661644686)" sheetId="4" r:id="rId3"/>
     <sheet name="KUMAR INTERNET-(660322625)" sheetId="2" r:id="rId4"/>
     <sheet name="DIVYANKA MOBILE-(660315660)" sheetId="5" r:id="rId5"/>
-    <sheet name="KRISH RAJ MOBILE-(661032970)" sheetId="6" r:id="rId6"/>
-    <sheet name="PAWAN PAY PHONE-(660297502)" sheetId="8" r:id="rId7"/>
-    <sheet name="PRITI MOBILE CENTRE-(660297509)" sheetId="9" r:id="rId8"/>
+    <sheet name="PRITI MOBILE CENTRE-(660297509)" sheetId="9" r:id="rId6"/>
+    <sheet name="KRISH RAJ MOBILE-(661032970)" sheetId="6" r:id="rId7"/>
+    <sheet name="PAWAN PAY PHONE-(660297502)" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="24">
   <si>
     <t>MEDIA MOBILE GALLERY-(660315675)</t>
   </si>
@@ -59,13 +59,16 @@
     <t>Cash</t>
   </si>
   <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
     <t>UTKARSH ENTERPRISES-(661673664)</t>
   </si>
   <si>
     <t>Signature</t>
-  </si>
-  <si>
-    <t>Auto</t>
   </si>
   <si>
     <t>Digital</t>
@@ -83,13 +86,13 @@
     <t>PhonePe</t>
   </si>
   <si>
+    <t>PRITI MOBILE CENTRE-(660297509)</t>
+  </si>
+  <si>
     <t>KRISH RAJ MOBILE &amp; ELECTRONIC-(661032970)</t>
   </si>
   <si>
     <t>PAWAN PAY PHONE-(660297502)</t>
-  </si>
-  <si>
-    <t>PRITI MOBILE CENTRE-(660297509)</t>
   </si>
 </sst>
 </file>
@@ -118,54 +121,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,47 +137,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,8 +161,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,7 +223,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,7 +292,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,13 +394,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,67 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,85 +466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,17 +486,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,11 +534,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,17 +566,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -574,9 +575,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,7 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,134 +606,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,6 +750,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1092,27 +1098,27 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.2857142857143" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.8571428571429" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14" style="6" customWidth="1"/>
-    <col min="7" max="16382" width="9.14285714285714" style="6"/>
-    <col min="16383" max="16384" width="9.14285714285714" style="12"/>
+    <col min="1" max="1" width="17" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.8571428571429" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14" style="7" customWidth="1"/>
+    <col min="7" max="16382" width="9.14285714285714" style="7"/>
+    <col min="16383" max="16384" width="9.14285714285714" style="13"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="4" t="s">
@@ -1158,7 +1164,8 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
@@ -1172,7 +1179,8 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E21" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>5000</v>
       </c>
     </row>
@@ -1186,61 +1194,218 @@
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="12" customFormat="1"/>
-    <row r="8" s="12" customFormat="1"/>
-    <row r="9" s="6" customFormat="1"/>
-    <row r="10" s="6" customFormat="1"/>
-    <row r="11" s="6" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="20" s="1" customFormat="1"/>
-    <row r="21" s="1" customFormat="1"/>
-    <row r="22" s="1" customFormat="1"/>
-    <row r="23" s="1" customFormat="1"/>
-    <row r="24" s="6" customFormat="1"/>
-    <row r="25" s="6" customFormat="1"/>
-    <row r="26" s="6" customFormat="1"/>
-    <row r="27" s="1" customFormat="1"/>
-    <row r="28" s="1" customFormat="1"/>
-    <row r="29" s="1" customFormat="1"/>
-    <row r="30" s="1" customFormat="1"/>
-    <row r="31" s="1" customFormat="1"/>
-    <row r="32" s="6" customFormat="1" spans="1:1">
-      <c r="A32" s="9"/>
-    </row>
-    <row r="33" s="6" customFormat="1" spans="1:1">
-      <c r="A33" s="9"/>
-    </row>
-    <row r="34" s="6" customFormat="1"/>
+    <row r="7" s="13" customFormat="1" spans="1:5">
+      <c r="A7" s="5">
+        <v>44177</v>
+      </c>
+      <c r="C7" s="13">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="8" s="13" customFormat="1" spans="1:5">
+      <c r="A8" s="5">
+        <v>44177</v>
+      </c>
+      <c r="B8" s="13">
+        <v>3120</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="7" customFormat="1" spans="5:5">
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" s="7" customFormat="1" spans="5:5">
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" s="7" customFormat="1" spans="5:5">
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="5:5">
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="5:5">
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="5:5">
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="5:5">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="5:5">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="5:5">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="5:5">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="5:5">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="5:5">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f>IF(A22="","",E21+B22/1.04-C22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f>IF(A23="","",E22+B23/1.04-C23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" s="7" customFormat="1" spans="5:5">
+      <c r="E24" s="6" t="str">
+        <f>IF(A24="","",E23+B24/1.04-C24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" s="7" customFormat="1" spans="5:5">
+      <c r="E25" s="6" t="str">
+        <f>IF(A25="","",E24+B25/1.04-C25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" s="7" customFormat="1" spans="5:5">
+      <c r="E26" s="6" t="str">
+        <f>IF(A26="","",E25+B26/1.04-C26)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="5:5">
+      <c r="E27" s="6" t="str">
+        <f>IF(A27="","",E26+B27/1.04-C27)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="5:5">
+      <c r="E28" s="6" t="str">
+        <f>IF(A28="","",E27+B28/1.04-C28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="5:5">
+      <c r="E29" s="6" t="str">
+        <f>IF(A29="","",E28+B29/1.04-C29)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="5:5">
+      <c r="E30" s="6" t="str">
+        <f>IF(A30="","",E29+B30/1.04-C30)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="5:5">
+      <c r="E31" s="6" t="str">
+        <f>IF(A31="","",E30+B31/1.04-C31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" s="7" customFormat="1" spans="1:5">
+      <c r="A32" s="10"/>
+      <c r="E32" s="6" t="str">
+        <f>IF(A32="","",E31+B32/1.04-C32)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" s="7" customFormat="1" spans="1:5">
+      <c r="A33" s="10"/>
+      <c r="E33" s="6" t="str">
+        <f>IF(A33="","",E32+B33/1.04-C33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" s="7" customFormat="1" spans="5:5">
+      <c r="E34" s="6" t="str">
+        <f>IF(A34="","",E33+B34/1.04-C34)</f>
+        <v/>
+      </c>
+    </row>
     <row r="35" s="1" customFormat="1"/>
     <row r="36" s="1" customFormat="1"/>
     <row r="37" s="1" customFormat="1"/>
     <row r="38" s="1" customFormat="1"/>
-    <row r="39" s="6" customFormat="1" spans="1:1">
-      <c r="A39" s="9"/>
-    </row>
-    <row r="40" s="6" customFormat="1"/>
-    <row r="41" s="6" customFormat="1"/>
+    <row r="39" s="7" customFormat="1" spans="1:1">
+      <c r="A39" s="10"/>
+    </row>
+    <row r="40" s="7" customFormat="1"/>
+    <row r="41" s="7" customFormat="1"/>
     <row r="42" s="1" customFormat="1"/>
     <row r="43" s="1" customFormat="1"/>
     <row r="44" s="1" customFormat="1"/>
-    <row r="45" s="6" customFormat="1" spans="1:1">
-      <c r="A45" s="9"/>
-    </row>
-    <row r="46" s="6" customFormat="1"/>
-    <row r="47" s="6" customFormat="1"/>
-    <row r="48" s="6" customFormat="1" spans="1:1">
-      <c r="A48" s="9"/>
+    <row r="45" s="7" customFormat="1" spans="1:1">
+      <c r="A45" s="10"/>
+    </row>
+    <row r="46" s="7" customFormat="1"/>
+    <row r="47" s="7" customFormat="1"/>
+    <row r="48" s="7" customFormat="1" spans="1:1">
+      <c r="A48" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1255,148 +1420,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" s="10" customFormat="1" spans="1:5">
-      <c r="A3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="5">
-        <v>44167</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1040</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="5">
-        <v>44169</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1040</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="5">
-        <v>44169</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="5">
-        <v>44171</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2080</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5">
-        <v>44173</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1411,11 +1438,11 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="4" t="s">
@@ -1437,14 +1464,334 @@
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="11" customFormat="1" spans="1:5">
+      <c r="A3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="5">
+        <v>44167</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1040</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="5">
+        <v>44169</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1040</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" s="10" customFormat="1" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E36" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:5">
+      <c r="A6" s="5">
+        <v>44169</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:5">
+      <c r="A7" s="5">
+        <v>44171</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2080</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5">
+        <v>44173</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>44177</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2080</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="11" customFormat="1" spans="1:5">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1458,7 +1805,8 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
@@ -1470,9 +1818,10 @@
         <v>2000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E36" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -1484,9 +1833,10 @@
         <v>1040</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -1498,9 +1848,10 @@
         <v>3120</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
@@ -1514,7 +1865,8 @@
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1526,9 +1878,10 @@
         <v>3120</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
@@ -1542,8 +1895,165 @@
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1559,13 +2069,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="32.1428571428571" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
@@ -1578,7 +2088,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1603,14 +2113,14 @@
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" s="10" customFormat="1" spans="1:5">
-      <c r="A3" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="11" customFormat="1" spans="1:5">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1624,7 +2134,8 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
@@ -1636,10 +2147,143 @@
         <v>2000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E27" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5">
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1655,10 +2299,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1674,7 +2318,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1699,7 +2343,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:5">
@@ -1720,7 +2364,8 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
@@ -1734,7 +2379,8 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E36" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>4000</v>
       </c>
     </row>
@@ -1746,9 +2392,10 @@
         <v>4000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1760,9 +2407,10 @@
         <v>3120</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
@@ -1774,9 +2422,10 @@
         <v>3000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1788,10 +2437,182 @@
         <v>3120</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
         <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5">
+        <v>44177</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1807,131 +2628,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:3">
-      <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" s="6" customFormat="1" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="6" customFormat="1" spans="1:5">
-      <c r="A4" s="9">
-        <v>44169</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1040</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="9">
-        <v>44169</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="9">
-        <v>44175</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2080</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="9">
-        <v>44175</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1972,7 +2672,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:5">
@@ -1985,49 +2685,336 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
       <c r="A4" s="5">
-        <v>44169</v>
+        <v>44174</v>
       </c>
       <c r="B4" s="1">
-        <v>2080</v>
+        <v>1040</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2000</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="5">
+        <v>44174</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1040</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E32" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:5">
+      <c r="A6" s="5">
+        <v>44175</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3120</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:5">
+      <c r="A7" s="5">
+        <v>44175</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="A8" s="5">
+        <v>44178</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3120</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="7" customFormat="1" spans="1:3">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" s="7" customFormat="1" spans="1:6">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="1" spans="1:5">
+      <c r="A4" s="10">
         <v>44169</v>
       </c>
+      <c r="B4" s="7">
+        <v>1040</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10">
+        <v>44169</v>
+      </c>
       <c r="C5" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E23" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="5">
-        <v>44171</v>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10">
+        <v>44175</v>
       </c>
       <c r="B6" s="1">
         <v>2080</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5">
-        <v>44173</v>
+      <c r="A7" s="10">
+        <v>44175</v>
       </c>
       <c r="C7" s="1">
         <v>2000</v>
@@ -2035,37 +3022,105 @@
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5">
-        <v>44173</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3120</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="5">
-        <v>44175</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
+    <row r="8" spans="5:5">
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2081,13 +3136,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
@@ -2100,7 +3155,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2125,7 +3180,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:5">
@@ -2138,49 +3193,52 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
       <c r="A4" s="5">
-        <v>44174</v>
+        <v>44169</v>
       </c>
       <c r="B4" s="1">
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1000</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="5">
-        <v>44174</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1040</v>
+        <v>44169</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2000</v>
+        <v>11</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E23" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
       <c r="A6" s="5">
-        <v>44175</v>
+        <v>44171</v>
       </c>
       <c r="B6" s="1">
-        <v>3120</v>
+        <v>2080</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="5">
-        <v>44175</v>
+        <v>44173</v>
       </c>
       <c r="C7" s="1">
         <v>2000</v>
@@ -2188,12 +3246,133 @@
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5">
+        <v>44173</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3120</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:1">
-      <c r="A8" s="5"/>
+    <row r="9" s="1" customFormat="1" spans="1:5">
+      <c r="A9" s="5">
+        <v>44175</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5">
+        <v>44178</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3120</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
